--- a/数据整理/stocks/其他/NKE-NIKEInc.xlsx
+++ b/数据整理/stocks/其他/NKE-NIKEInc.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NKE-NIKEInc.xlsx
+++ b/数据整理/stocks/其他/NKE-NIKEInc.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/NKE-NIKEInc.xlsx
+++ b/数据整理/stocks/其他/NKE-NIKEInc.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/NKE-NIKEInc.xlsx
+++ b/数据整理/stocks/其他/NKE-NIKEInc.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,357 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1496</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>096001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -834,7 +558,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -864,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -902,32 +626,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -950,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -988,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1026,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1064,22 +788,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1118,7 +842,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1148,32 +872,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1186,32 +910,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1234,26 +958,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1272,26 +996,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1310,26 +1034,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1348,22 +1072,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0207</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1381,80 +1105,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/NKE-NIKEInc.xlsx
+++ b/数据整理/stocks/其他/NKE-NIKEInc.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -593,12 +610,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -608,16 +625,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.1210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -631,12 +648,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -646,16 +663,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1419</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0958</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0958</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0958</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -783,12 +800,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -798,16 +815,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +859,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -872,32 +889,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -910,32 +927,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1302</t>
+          <t>0.1419</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -958,26 +975,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -996,26 +1013,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1034,26 +1051,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1072,22 +1089,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1100,6 +1117,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
